--- a/voxtools/test_suite/shared_data/kodning01.xlsx
+++ b/voxtools/test_suite/shared_data/kodning01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="4" r:id="rId1"/>
@@ -62,24 +62,12 @@
     <t>my boss is horrible.</t>
   </si>
   <si>
-    <t>Sentences</t>
-  </si>
-  <si>
     <t>train</t>
   </si>
   <si>
     <t>classify</t>
   </si>
   <si>
-    <t>validate</t>
-  </si>
-  <si>
-    <t>correct train</t>
-  </si>
-  <si>
-    <t>correct validate</t>
-  </si>
-  <si>
     <t>the beer was good.</t>
   </si>
   <si>
@@ -96,6 +84,18 @@
   </si>
   <si>
     <t>Gary is a friend of mine.</t>
+  </si>
+  <si>
+    <t>sentences</t>
+  </si>
+  <si>
+    <t>correct_train</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>correct_test</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -470,22 +470,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -574,7 +574,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
